--- a/Cohort Status.xlsx
+++ b/Cohort Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izquierdo Lab\Desktop\Data Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgaguirre\Desktop\Old Laptop\OFC&amp;BLA Manuscript\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B89F4B-4294-4F46-81A3-6373AA6C7FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83667FE5-5FD1-43F3-8066-A7A1577B7651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6440" xr2:uid="{73BF30F9-3F9A-44D6-B1CA-16DB2FD925B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -135,33 +135,18 @@
     <t>CA30</t>
   </si>
   <si>
-    <t>CA32</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
-    <t>CA33</t>
-  </si>
-  <si>
     <t>CA34</t>
   </si>
   <si>
-    <t>CA40</t>
-  </si>
-  <si>
     <t>CA42</t>
   </si>
   <si>
     <t>CA44</t>
   </si>
   <si>
-    <t>CA45</t>
-  </si>
-  <si>
-    <t>CA46</t>
-  </si>
-  <si>
     <t>CA47</t>
   </si>
   <si>
@@ -180,12 +165,6 @@
     <t>CA55</t>
   </si>
   <si>
-    <t>CA56</t>
-  </si>
-  <si>
-    <t>CA57</t>
-  </si>
-  <si>
     <t>CA58</t>
   </si>
   <si>
@@ -216,16 +195,10 @@
     <t>CA71</t>
   </si>
   <si>
-    <t>CA82</t>
-  </si>
-  <si>
     <t>CA83</t>
   </si>
   <si>
     <t>CA84</t>
-  </si>
-  <si>
-    <t>CA85</t>
   </si>
   <si>
     <t>CA86</t>
@@ -669,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E9B45-6B4F-4BD7-9C2D-3FE1D23B3DB2}">
-  <dimension ref="A1:AM66"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -790,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -810,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -830,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -850,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -1210,13 +1183,13 @@
     </row>
     <row r="24" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
@@ -1261,129 +1234,63 @@
       <c r="AL24" s="6"/>
       <c r="AM24" s="6"/>
     </row>
-    <row r="25" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-    </row>
-    <row r="26" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-    </row>
-    <row r="27" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2"/>
@@ -1420,43 +1327,76 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
     </row>
-    <row r="28" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+    </row>
+    <row r="29" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="B29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1465,19 +1405,19 @@
         <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -1488,16 +1428,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1543,14 +1483,14 @@
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1586,68 +1526,35 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
     </row>
-    <row r="33" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-    </row>
-    <row r="34" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>16</v>
@@ -1659,80 +1566,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-    </row>
-    <row r="37" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
@@ -1740,52 +1614,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-    </row>
-    <row r="38" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
@@ -1793,145 +1634,79 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-    </row>
-    <row r="39" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-    </row>
-    <row r="40" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
@@ -1939,59 +1714,59 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="B43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -1999,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
@@ -2011,12 +1786,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
@@ -2025,33 +1800,33 @@
         <v>9</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
@@ -2085,10 +1860,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2096,58 +1871,58 @@
         <v>63</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="B51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="B52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2159,16 +1934,16 @@
         <v>23</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2179,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
@@ -2199,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -2216,7 +1991,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
@@ -2236,198 +2011,18 @@
         <v>70</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
         <v>11</v>
       </c>
     </row>
